--- a/excel/collective/zestawy_dla_uczniow/zestaw_011.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_011.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>ZESTAW ZADAŃ NR 11 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Julia Sadowska</t>
-  </si>
-  <si>
-    <t>Hanna Jaworska</t>
+    <t>Lena Lis</t>
   </si>
   <si>
     <t>Wojciech Wojciechowski</t>
   </si>
   <si>
-    <t>Mikołaj Kowalczyk</t>
-  </si>
-  <si>
-    <t>Jan Wojciechowski</t>
+    <t>Oliwia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Lena Maciejewska</t>
+  </si>
+  <si>
+    <t>Natalia Jaworska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,40</t>
+  </si>
+  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>5,30</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,10</t>
+    <t>4,90</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>22,60</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,70</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>11,60</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>4,00</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,20</t>
+    <t>5,70</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,50</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>2,00</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>16,96</t>
+    <t>28,64</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>6,08</t>
+    <t>3,72</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>15,24</t>
+    <t>22,63</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>16,58</t>
+    <t>3,24</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>30,51</t>
+    <t>30,76</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>4,85</t>
-  </si>
-  <si>
-    <t>23,01</t>
-  </si>
-  <si>
-    <t>28,34</t>
-  </si>
-  <si>
-    <t>8,64</t>
-  </si>
-  <si>
-    <t>10,78</t>
+    <t>28,31</t>
+  </si>
+  <si>
+    <t>30,73</t>
+  </si>
+  <si>
+    <t>4,58</t>
+  </si>
+  <si>
+    <t>21,46</t>
+  </si>
+  <si>
+    <t>30,55</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>5,03</t>
-  </si>
-  <si>
-    <t>28,82</t>
-  </si>
-  <si>
-    <t>12,07</t>
-  </si>
-  <si>
-    <t>29,98</t>
-  </si>
-  <si>
-    <t>19,10</t>
+    <t>6,57</t>
+  </si>
+  <si>
+    <t>4,73</t>
+  </si>
+  <si>
+    <t>24,14</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>28,76</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,22 +340,10 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Borkowska</t>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Król</t>
   </si>
   <si>
     <t>Szymon</t>
@@ -364,25 +352,34 @@
     <t>Piotrowski</t>
   </si>
   <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
     <t>Aleksander</t>
   </si>
   <si>
-    <t>Krawczyk</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
   </si>
   <si>
     <t>Emilia</t>
   </si>
   <si>
-    <t>Maciejewska</t>
+    <t>Sikorska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -418,165 +415,168 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Zuzanna Król</t>
-  </si>
-  <si>
-    <t>10.03.2004</t>
-  </si>
-  <si>
-    <t>8 191,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Lewandowski</t>
-  </si>
-  <si>
-    <t>28.11.2005</t>
-  </si>
-  <si>
-    <t>11 051,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalczyk</t>
-  </si>
-  <si>
-    <t>17.10.1975</t>
-  </si>
-  <si>
-    <t>2 547,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Górska</t>
-  </si>
-  <si>
-    <t>21.09.1985</t>
-  </si>
-  <si>
-    <t>5 211,00 zł</t>
-  </si>
-  <si>
-    <t>23.12.1997</t>
-  </si>
-  <si>
-    <t>10 220,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Szymański</t>
-  </si>
-  <si>
-    <t>13.08.1992</t>
-  </si>
-  <si>
-    <t>11 142,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Grabowski</t>
-  </si>
-  <si>
-    <t>06.12.1987</t>
-  </si>
-  <si>
-    <t>6 984,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Wiśniewski</t>
-  </si>
-  <si>
-    <t>18.12.1982</t>
-  </si>
-  <si>
-    <t>5 558,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Górska</t>
-  </si>
-  <si>
-    <t>07.12.1995</t>
-  </si>
-  <si>
-    <t>7 554,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Król</t>
-  </si>
-  <si>
-    <t>01.06.2000</t>
-  </si>
-  <si>
-    <t>6 664,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Wojciechowski</t>
-  </si>
-  <si>
-    <t>18.10.1975</t>
+    <t>Natalia Górska</t>
+  </si>
+  <si>
+    <t>11.10.1975</t>
+  </si>
+  <si>
+    <t>11 034,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Jankowski</t>
+  </si>
+  <si>
+    <t>08.07.1976</t>
+  </si>
+  <si>
+    <t>12 054,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Piekarska</t>
+  </si>
+  <si>
+    <t>17.02.1978</t>
+  </si>
+  <si>
+    <t>12 205,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Rogalska</t>
+  </si>
+  <si>
+    <t>25.08.1987</t>
+  </si>
+  <si>
+    <t>12 091,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Zieliński</t>
+  </si>
+  <si>
+    <t>12.10.1979</t>
+  </si>
+  <si>
+    <t>13 140,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Górska</t>
+  </si>
+  <si>
+    <t>01.08.1990</t>
+  </si>
+  <si>
+    <t>9 237,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Bednarska</t>
+  </si>
+  <si>
+    <t>16.03.1987</t>
+  </si>
+  <si>
+    <t>4 767,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Wójcik</t>
+  </si>
+  <si>
+    <t>15.02.1990</t>
+  </si>
+  <si>
+    <t>7 031,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Rogalska</t>
+  </si>
+  <si>
+    <t>24.02.2000</t>
+  </si>
+  <si>
+    <t>8 154,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Borkowska</t>
+  </si>
+  <si>
+    <t>25.09.1980</t>
+  </si>
+  <si>
+    <t>11 676,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Woźniak</t>
+  </si>
+  <si>
+    <t>15.09.1994</t>
+  </si>
+  <si>
+    <t>6 343,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Krawczyk</t>
+  </si>
+  <si>
+    <t>09.09.1976</t>
+  </si>
+  <si>
+    <t>7 156,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Malinowska</t>
+  </si>
+  <si>
+    <t>04.02.1999</t>
+  </si>
+  <si>
+    <t>12 976,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Jaworska</t>
+  </si>
+  <si>
+    <t>11.08.1989</t>
+  </si>
+  <si>
+    <t>9 885,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Wilk</t>
+  </si>
+  <si>
+    <t>25.03.1982</t>
+  </si>
+  <si>
+    <t>5 559,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>12.04.1976</t>
+  </si>
+  <si>
+    <t>7 912,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Czarnecka</t>
+  </si>
+  <si>
+    <t>03.02.1986</t>
+  </si>
+  <si>
+    <t>8 486,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Piekarska</t>
+  </si>
+  <si>
+    <t>16.08.1998</t>
   </si>
   <si>
     <t>6 286,00 zł</t>
   </si>
   <si>
-    <t>Filip Kowalski</t>
-  </si>
-  <si>
-    <t>03.03.1998</t>
-  </si>
-  <si>
-    <t>9 678,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Wójcik</t>
-  </si>
-  <si>
-    <t>19.12.1999</t>
-  </si>
-  <si>
-    <t>8 379,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Wiśniewski</t>
-  </si>
-  <si>
-    <t>07.07.1983</t>
-  </si>
-  <si>
-    <t>10 575,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Urbaniak</t>
-  </si>
-  <si>
-    <t>23.01.1982</t>
-  </si>
-  <si>
-    <t>3 577,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Maciejewska</t>
-  </si>
-  <si>
-    <t>10.11.2005</t>
-  </si>
-  <si>
-    <t>4 951,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Jankowski</t>
-  </si>
-  <si>
-    <t>08.02.2005</t>
-  </si>
-  <si>
-    <t>14 253,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Wiśniewski</t>
-  </si>
-  <si>
-    <t>07.09.1992</t>
-  </si>
-  <si>
-    <t>9 716,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -646,331 +646,292 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 070,00 zł</t>
+  </si>
+  <si>
+    <t>1 241,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 500,00 zł</t>
-  </si>
-  <si>
-    <t>1 770,00 zł</t>
+    <t>736,00 zł</t>
+  </si>
+  <si>
+    <t>1 008,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 114,00 zł</t>
+  </si>
+  <si>
+    <t>1 504,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>1 458,00 zł</t>
+  </si>
+  <si>
+    <t>1 866,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 030,00 zł</t>
+  </si>
+  <si>
+    <t>1 308,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 094,00 zł</t>
+  </si>
+  <si>
+    <t>1 389,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 461,00 zł</t>
+  </si>
+  <si>
+    <t>1 929,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 003,00 zł</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 442,00 zł</t>
+  </si>
+  <si>
+    <t>2 004,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>511,00 zł</t>
+  </si>
+  <si>
+    <t>613,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>517,00 zł</t>
+  </si>
+  <si>
+    <t>595,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 006,00 zł</t>
+  </si>
+  <si>
+    <t>1 328,00 zł</t>
+  </si>
+  <si>
+    <t>1 430,00 zł</t>
+  </si>
+  <si>
+    <t>1 602,00 zł</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 300,00 zł</t>
+  </si>
+  <si>
+    <t>1 456,00 zł</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 079,00 zł</t>
+  </si>
+  <si>
+    <t>1 284,00 zł</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 171,00 zł</t>
+  </si>
+  <si>
+    <t>1 628,00 zł</t>
+  </si>
+  <si>
+    <t>1 016,00 zł</t>
+  </si>
+  <si>
+    <t>1 118,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>906,00 zł</t>
+  </si>
+  <si>
+    <t>1 232,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>889,00 zł</t>
+  </si>
+  <si>
+    <t>1 031,00 zł</t>
   </si>
   <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 185,00 zł</t>
-  </si>
-  <si>
-    <t>1 327,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>1 061,00 zł</t>
+  </si>
+  <si>
+    <t>1 475,00 zł</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 036,00 zł</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 129,00 zł</t>
+  </si>
+  <si>
+    <t>1 176,00 zł</t>
+  </si>
+  <si>
+    <t>1 529,00 zł</t>
+  </si>
+  <si>
+    <t>1 396,00 zł</t>
+  </si>
+  <si>
+    <t>1 717,00 zł</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>845,00 zł</t>
-  </si>
-  <si>
-    <t>1 082,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 204,00 zł</t>
-  </si>
-  <si>
-    <t>1 529,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 247,00 zł</t>
-  </si>
-  <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>1 357,00 zł</t>
-  </si>
-  <si>
-    <t>1 642,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 492,00 zł</t>
-  </si>
-  <si>
-    <t>1 850,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>511,00 zł</t>
-  </si>
-  <si>
-    <t>562,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>560,00 zł</t>
-  </si>
-  <si>
-    <t>700,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 313,00 zł</t>
-  </si>
-  <si>
-    <t>1 773,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>1 006,00 zł</t>
-  </si>
-  <si>
-    <t>1 127,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 456,00 zł</t>
-  </si>
-  <si>
-    <t>1 791,00 zł</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>532,00 zł</t>
-  </si>
-  <si>
-    <t>606,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 427,00 zł</t>
-  </si>
-  <si>
-    <t>1 969,00 zł</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>760,00 zł</t>
-  </si>
-  <si>
-    <t>897,00 zł</t>
-  </si>
-  <si>
-    <t>1 177,00 zł</t>
-  </si>
-  <si>
-    <t>1 601,00 zł</t>
-  </si>
-  <si>
-    <t>832,00 zł</t>
-  </si>
-  <si>
-    <t>1 023,00 zł</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>789,00 zł</t>
-  </si>
-  <si>
-    <t>1 065,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 454,00 zł</t>
-  </si>
-  <si>
-    <t>1 948,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>598,00 zł</t>
-  </si>
-  <si>
-    <t>795,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 193,00 zł</t>
-  </si>
-  <si>
-    <t>1 455,00 zł</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>1 733,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>559,00 zł</t>
-  </si>
-  <si>
-    <t>688,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>1 425,00 zł</t>
-  </si>
-  <si>
-    <t>1 938,00 zł</t>
-  </si>
-  <si>
-    <t>1 157,00 zł</t>
-  </si>
-  <si>
-    <t>1 608,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 426,00 zł</t>
-  </si>
-  <si>
-    <t>1 611,00 zł</t>
-  </si>
-  <si>
-    <t>1 276,00 zł</t>
-  </si>
-  <si>
-    <t>1 442,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>1 044,00 zł</t>
-  </si>
-  <si>
-    <t>1 169,00 zł</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 331,00 zł</t>
-  </si>
-  <si>
-    <t>1 784,00 zł</t>
-  </si>
-  <si>
-    <t>1 080,00 zł</t>
-  </si>
-  <si>
-    <t>1 372,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
+    <t>1 047,00 zł</t>
+  </si>
+  <si>
+    <t>1 225,00 zł</t>
+  </si>
+  <si>
+    <t>1 081,00 zł</t>
+  </si>
+  <si>
+    <t>1 384,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1527,19 +1488,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
       <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1548,13 +1509,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
         <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -1569,16 +1530,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
         <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
       </c>
       <c r="F19" s="3">
         <v>6</v>
@@ -1590,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>6</v>
       </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1611,16 +1572,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>3</v>
@@ -1632,10 +1593,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -1656,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
         <v>6</v>
@@ -1665,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1674,19 +1635,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1695,16 +1656,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
@@ -1716,16 +1677,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="E26" s="3">
         <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>4</v>
@@ -1740,16 +1701,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
         <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1761,16 +1722,16 @@
         <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
         <v>6</v>
-      </c>
-      <c r="F28" s="3">
-        <v>4</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1892,7 +1853,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1937,7 +1898,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1952,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1967,7 +1928,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2084,7 +2045,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2096,7 +2057,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2108,7 +2069,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2120,7 +2081,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2132,7 +2093,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2180,7 +2141,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2192,7 +2153,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2204,7 +2165,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2216,7 +2177,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2228,7 +2189,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2276,7 +2237,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2288,7 +2249,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2300,7 +2261,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2312,7 +2273,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2324,7 +2285,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2358,10 +2319,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2467,25 +2428,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2499,25 +2460,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5</v>
-      </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2534,22 +2495,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2563,25 +2524,25 @@
         <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2595,22 +2556,22 @@
         <v>115</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>4</v>
       </c>
       <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>4</v>
       </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J16" s="3">
         <v>6</v>
@@ -2621,31 +2582,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
       </c>
       <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
         <v>6</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2653,19 +2614,19 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -2674,45 +2635,29 @@
         <v>3</v>
       </c>
       <c r="I18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>5</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
@@ -2730,27 +2675,11 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2778,7 +2707,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2788,87 +2717,87 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>144</v>
@@ -3064,10 +2993,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49:B53"/>
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3215,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>220</v>
@@ -3230,7 +3159,7 @@
         <v>223</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3238,22 +3167,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3261,7 +3190,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>228</v>
@@ -3276,7 +3205,7 @@
         <v>231</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3284,22 +3213,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3307,22 +3236,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3330,22 +3259,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3353,22 +3282,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3379,19 +3308,19 @@
         <v>214</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3402,19 +3331,19 @@
         <v>214</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3422,22 +3351,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>218</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3448,19 +3377,19 @@
         <v>214</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3471,19 +3400,19 @@
         <v>208</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3491,22 +3420,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3514,22 +3443,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3540,19 +3469,19 @@
         <v>214</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3563,19 +3492,19 @@
         <v>214</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3586,19 +3515,19 @@
         <v>214</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3606,22 +3535,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3629,22 +3558,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3655,19 +3584,19 @@
         <v>214</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3675,22 +3604,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3698,22 +3627,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3721,10 +3650,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>300</v>
@@ -3733,10 +3662,10 @@
         <v>301</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3744,158 +3673,66 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="F41" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>304</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="B45" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>305</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="B46" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="B47" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>307</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>185</v>
+      <c r="B48" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>318</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>319</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>320</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>321</v>
-      </c>
-      <c r="B53" s="14" t="s">
         <v>189</v>
       </c>
     </row>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_011.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_011.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>ZESTAW ZADAŃ NR 11 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 11 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,90</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>22,60</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,70</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,50</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>2,00</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>28,64</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>3,72</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>22,63</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>3,24</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>30,76</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>28,31</t>
-  </si>
-  <si>
-    <t>30,73</t>
-  </si>
-  <si>
-    <t>4,58</t>
-  </si>
-  <si>
-    <t>21,46</t>
-  </si>
-  <si>
-    <t>30,55</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>6,57</t>
-  </si>
-  <si>
-    <t>4,73</t>
-  </si>
-  <si>
-    <t>24,14</t>
-  </si>
-  <si>
-    <t>1,17</t>
-  </si>
-  <si>
-    <t>28,76</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,162 +343,108 @@
     <t>11.10.1975</t>
   </si>
   <si>
-    <t>11 034,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Jankowski</t>
   </si>
   <si>
     <t>08.07.1976</t>
   </si>
   <si>
-    <t>12 054,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Piekarska</t>
   </si>
   <si>
     <t>17.02.1978</t>
   </si>
   <si>
-    <t>12 205,00 zł</t>
-  </si>
-  <si>
     <t>Lena Rogalska</t>
   </si>
   <si>
     <t>25.08.1987</t>
   </si>
   <si>
-    <t>12 091,00 zł</t>
-  </si>
-  <si>
     <t>Filip Zieliński</t>
   </si>
   <si>
     <t>12.10.1979</t>
   </si>
   <si>
-    <t>13 140,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Górska</t>
   </si>
   <si>
     <t>01.08.1990</t>
   </si>
   <si>
-    <t>9 237,00 zł</t>
-  </si>
-  <si>
     <t>Julia Bednarska</t>
   </si>
   <si>
     <t>16.03.1987</t>
   </si>
   <si>
-    <t>4 767,00 zł</t>
-  </si>
-  <si>
     <t>Filip Wójcik</t>
   </si>
   <si>
     <t>15.02.1990</t>
   </si>
   <si>
-    <t>7 031,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Rogalska</t>
   </si>
   <si>
     <t>24.02.2000</t>
   </si>
   <si>
-    <t>8 154,00 zł</t>
-  </si>
-  <si>
     <t>Julia Borkowska</t>
   </si>
   <si>
     <t>25.09.1980</t>
   </si>
   <si>
-    <t>11 676,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Woźniak</t>
   </si>
   <si>
     <t>15.09.1994</t>
   </si>
   <si>
-    <t>6 343,00 zł</t>
-  </si>
-  <si>
     <t>Adam Krawczyk</t>
   </si>
   <si>
     <t>09.09.1976</t>
   </si>
   <si>
-    <t>7 156,00 zł</t>
-  </si>
-  <si>
     <t>Lena Malinowska</t>
   </si>
   <si>
     <t>04.02.1999</t>
   </si>
   <si>
-    <t>12 976,00 zł</t>
-  </si>
-  <si>
     <t>Maja Jaworska</t>
   </si>
   <si>
     <t>11.08.1989</t>
   </si>
   <si>
-    <t>9 885,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Wilk</t>
   </si>
   <si>
     <t>25.03.1982</t>
   </si>
   <si>
-    <t>5 559,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Kaźmierczak</t>
   </si>
   <si>
     <t>12.04.1976</t>
   </si>
   <si>
-    <t>7 912,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Czarnecka</t>
   </si>
   <si>
     <t>03.02.1986</t>
   </si>
   <si>
-    <t>8 486,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Piekarska</t>
   </si>
   <si>
     <t>16.08.1998</t>
   </si>
   <si>
-    <t>6 286,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -589,9 +457,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -652,12 +517,6 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 070,00 zł</t>
-  </si>
-  <si>
-    <t>1 241,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -670,12 +529,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>736,00 zł</t>
-  </si>
-  <si>
-    <t>1 008,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -685,21 +538,9 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 114,00 zł</t>
-  </si>
-  <si>
-    <t>1 504,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>1 866,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
@@ -709,12 +550,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 030,00 zł</t>
-  </si>
-  <si>
-    <t>1 308,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -727,12 +562,6 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 094,00 zł</t>
-  </si>
-  <si>
-    <t>1 389,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -742,24 +571,12 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 461,00 zł</t>
-  </si>
-  <si>
-    <t>1 929,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 003,00 zł</t>
-  </si>
-  <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -772,21 +589,9 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 442,00 zł</t>
-  </si>
-  <si>
-    <t>2 004,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>511,00 zł</t>
-  </si>
-  <si>
-    <t>613,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -796,12 +601,6 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>517,00 zł</t>
-  </si>
-  <si>
-    <t>595,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -814,124 +613,40 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 006,00 zł</t>
-  </si>
-  <si>
-    <t>1 328,00 zł</t>
-  </si>
-  <si>
-    <t>1 430,00 zł</t>
-  </si>
-  <si>
-    <t>1 602,00 zł</t>
-  </si>
-  <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 300,00 zł</t>
-  </si>
-  <si>
-    <t>1 456,00 zł</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 079,00 zł</t>
-  </si>
-  <si>
-    <t>1 284,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 171,00 zł</t>
-  </si>
-  <si>
-    <t>1 628,00 zł</t>
-  </si>
-  <si>
-    <t>1 016,00 zł</t>
-  </si>
-  <si>
-    <t>1 118,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>łódzkie</t>
   </si>
   <si>
-    <t>906,00 zł</t>
-  </si>
-  <si>
-    <t>1 232,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>889,00 zł</t>
-  </si>
-  <si>
-    <t>1 031,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>1 061,00 zł</t>
-  </si>
-  <si>
-    <t>1 475,00 zł</t>
-  </si>
-  <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 036,00 zł</t>
-  </si>
-  <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 129,00 zł</t>
-  </si>
-  <si>
-    <t>1 176,00 zł</t>
-  </si>
-  <si>
-    <t>1 529,00 zł</t>
-  </si>
-  <si>
-    <t>1 396,00 zł</t>
-  </si>
-  <si>
-    <t>1 717,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 047,00 zł</t>
-  </si>
-  <si>
-    <t>1 225,00 zł</t>
-  </si>
-  <si>
-    <t>1 081,00 zł</t>
-  </si>
-  <si>
-    <t>1 384,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -953,7 +668,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1010,14 +727,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1028,8 +745,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1060,30 +777,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1104,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1461,25 +1179,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1502,7 +1220,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1523,7 +1241,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1544,7 +1262,7 @@
       <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1565,7 +1283,7 @@
       <c r="F20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1586,7 +1304,7 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1607,7 +1325,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1628,7 +1346,7 @@
       <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1649,7 +1367,7 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1670,7 +1388,7 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1691,7 +1409,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1712,7 +1430,7 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1733,27 +1451,17 @@
       <c r="F28" s="3">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1787,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1807,7 +1515,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1817,29 +1525,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1847,99 +1555,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.4</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4.9</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>22.6</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5.7</v>
       </c>
       <c r="D16" s="3">
         <v>8</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.5</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1972,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1997,113 +1705,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>28.64</v>
       </c>
       <c r="C15" s="3">
         <v>19</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3.72</v>
       </c>
       <c r="C16" s="3">
         <v>24</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>22.63</v>
       </c>
       <c r="C17" s="3">
         <v>44</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3.24</v>
       </c>
       <c r="C18" s="3">
         <v>34</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>30.76</v>
       </c>
       <c r="C19" s="3">
         <v>41</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2112,94 +1820,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>28.31</v>
       </c>
       <c r="C24" s="3">
         <v>39</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>30.73</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4.58</v>
       </c>
       <c r="C26" s="3">
         <v>37</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>21.46</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>30.55</v>
       </c>
       <c r="C28" s="3">
         <v>10</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2208,98 +1916,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>6.57</v>
       </c>
       <c r="C33" s="3">
         <v>26</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4.73</v>
       </c>
       <c r="C34" s="3">
         <v>37</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>24.14</v>
       </c>
       <c r="C35" s="3">
         <v>31</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1.17</v>
       </c>
       <c r="C36" s="3">
         <v>50</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>28.76</v>
       </c>
       <c r="C37" s="3">
         <v>21</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2322,7 +2030,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2342,90 +2050,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2448,16 +2156,16 @@
       <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2480,16 +2188,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -2512,16 +2220,16 @@
       <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2544,16 +2252,16 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -2576,16 +2284,16 @@
       <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -2608,16 +2316,16 @@
       <c r="J17" s="3">
         <v>6</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
@@ -2640,40 +2348,40 @@
       <c r="J18" s="3">
         <v>5</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2706,277 +2414,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11034</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12054</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12205</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12091</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13140</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9237</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4767</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7031</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11676</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6343</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>7156</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>12976</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="7">
+        <v>9885</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5559</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>178</v>
+        <v>136</v>
+      </c>
+      <c r="C26" s="7">
+        <v>7912</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>181</v>
+        <v>138</v>
+      </c>
+      <c r="C27" s="7">
+        <v>8486</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>184</v>
+        <v>140</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6286</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>185</v>
+      <c r="A31" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B34" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3011,86 +2713,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>190</v>
+      <c r="A1" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>207</v>
+      <c r="A15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3098,22 +2800,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1070</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1241</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3121,22 +2823,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
+      </c>
+      <c r="D17" s="7">
+        <v>736</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1008</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3144,22 +2846,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1114</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1504</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3167,22 +2869,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>225</v>
+        <v>168</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1458</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1866</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3190,22 +2892,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1030</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1308</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3213,22 +2915,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1094</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1389</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3236,22 +2938,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1461</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1929</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3259,22 +2961,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>245</v>
+        <v>184</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1003</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1404</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3282,22 +2984,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>251</v>
+        <v>188</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1442</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2004</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3305,22 +3007,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>254</v>
+        <v>171</v>
+      </c>
+      <c r="D25" s="7">
+        <v>511</v>
+      </c>
+      <c r="E25" s="7">
+        <v>613</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3328,22 +3030,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>259</v>
+        <v>192</v>
+      </c>
+      <c r="D26" s="7">
+        <v>517</v>
+      </c>
+      <c r="E26" s="7">
+        <v>595</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3351,22 +3053,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>265</v>
+        <v>196</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1006</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1328</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3374,22 +3076,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>267</v>
+        <v>182</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1430</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1602</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3397,22 +3099,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>270</v>
+        <v>197</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1300</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1456</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3420,22 +3122,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>273</v>
+        <v>198</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1079</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1284</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3443,22 +3145,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>276</v>
+        <v>199</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1171</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1628</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3466,22 +3168,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>278</v>
+        <v>179</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1016</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1118</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3489,22 +3191,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>282</v>
+        <v>196</v>
+      </c>
+      <c r="D33" s="7">
+        <v>906</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1232</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3512,22 +3214,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>285</v>
+        <v>179</v>
+      </c>
+      <c r="D34" s="7">
+        <v>889</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1031</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3535,22 +3237,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>289</v>
+        <v>184</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1061</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1475</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3558,22 +3260,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>275</v>
+        <v>205</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1036</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1171</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3581,22 +3283,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>236</v>
+        <v>206</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1129</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1389</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3604,22 +3306,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>295</v>
+        <v>196</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1176</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1529</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3627,22 +3329,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>297</v>
+        <v>171</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1396</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1717</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3650,22 +3352,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>301</v>
+        <v>208</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1047</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1225</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3673,68 +3375,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>303</v>
+        <v>171</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1081</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1384</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>185</v>
+      <c r="A44" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>304</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>305</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>306</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>307</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>308</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_011.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_011.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>ZESTAW ZADAŃ NR 11 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Lena Lis</t>
-  </si>
-  <si>
-    <t>Wojciech Wojciechowski</t>
-  </si>
-  <si>
-    <t>Oliwia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Lena Maciejewska</t>
-  </si>
-  <si>
-    <t>Natalia Jaworska</t>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>Natalia Sadowska</t>
+  </si>
+  <si>
+    <t>Maja Wójcik</t>
+  </si>
+  <si>
+    <t>Emilia Czarnecka</t>
+  </si>
+  <si>
+    <t>Julia Kubiak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 11 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -148,18 +152,18 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>Pędzelek</t>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
   </si>
   <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,49 +266,31 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Kubiak</t>
   </si>
   <si>
     <t>Natalia</t>
   </si>
   <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
+    <t>Rogalska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -337,127 +326,130 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Natalia Górska</t>
-  </si>
-  <si>
-    <t>11.10.1975</t>
-  </si>
-  <si>
-    <t>Szymon Jankowski</t>
-  </si>
-  <si>
-    <t>08.07.1976</t>
-  </si>
-  <si>
-    <t>Zuzanna Piekarska</t>
-  </si>
-  <si>
-    <t>17.02.1978</t>
-  </si>
-  <si>
-    <t>Lena Rogalska</t>
-  </si>
-  <si>
-    <t>25.08.1987</t>
-  </si>
-  <si>
-    <t>Filip Zieliński</t>
-  </si>
-  <si>
-    <t>12.10.1979</t>
+    <t>Lena Bednarska</t>
+  </si>
+  <si>
+    <t>Oliwia Rogalska</t>
+  </si>
+  <si>
+    <t>Kacper Szymański</t>
+  </si>
+  <si>
+    <t>Julia Urbaniak</t>
+  </si>
+  <si>
+    <t>Emilia Borkowska</t>
+  </si>
+  <si>
+    <t>Hanna Piekarska</t>
+  </si>
+  <si>
+    <t>Amelia Olszewska</t>
+  </si>
+  <si>
+    <t>Natalia Maciejewska</t>
+  </si>
+  <si>
+    <t>Filip Grabowski</t>
+  </si>
+  <si>
+    <t>Lena Olszewska</t>
+  </si>
+  <si>
+    <t>Hanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Lena Wójcik</t>
+  </si>
+  <si>
+    <t>Natalia Król</t>
+  </si>
+  <si>
+    <t>Maja Zawadzka</t>
+  </si>
+  <si>
+    <t>Aleksander Lewandowski</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Maja Lis</t>
   </si>
   <si>
     <t>Emilia Górska</t>
   </si>
   <si>
-    <t>01.08.1990</t>
-  </si>
-  <si>
-    <t>Julia Bednarska</t>
-  </si>
-  <si>
-    <t>16.03.1987</t>
-  </si>
-  <si>
-    <t>Filip Wójcik</t>
-  </si>
-  <si>
-    <t>15.02.1990</t>
-  </si>
-  <si>
-    <t>Hanna Rogalska</t>
-  </si>
-  <si>
-    <t>24.02.2000</t>
-  </si>
-  <si>
-    <t>Julia Borkowska</t>
-  </si>
-  <si>
-    <t>25.09.1980</t>
-  </si>
-  <si>
-    <t>Kacper Woźniak</t>
-  </si>
-  <si>
-    <t>15.09.1994</t>
-  </si>
-  <si>
-    <t>Adam Krawczyk</t>
-  </si>
-  <si>
-    <t>09.09.1976</t>
-  </si>
-  <si>
-    <t>Lena Malinowska</t>
-  </si>
-  <si>
-    <t>04.02.1999</t>
-  </si>
-  <si>
-    <t>Maja Jaworska</t>
-  </si>
-  <si>
-    <t>11.08.1989</t>
-  </si>
-  <si>
-    <t>Oliwia Wilk</t>
-  </si>
-  <si>
-    <t>25.03.1982</t>
-  </si>
-  <si>
-    <t>Amelia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>12.04.1976</t>
-  </si>
-  <si>
-    <t>Natalia Czarnecka</t>
-  </si>
-  <si>
-    <t>03.02.1986</t>
-  </si>
-  <si>
-    <t>Hanna Piekarska</t>
-  </si>
-  <si>
-    <t>16.08.1998</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Maja Urbaniak</t>
+  </si>
+  <si>
+    <t>Antoni Mazur</t>
+  </si>
+  <si>
+    <t>Emilia Urbaniak</t>
+  </si>
+  <si>
+    <t>Jakub Kowalczyk</t>
+  </si>
+  <si>
+    <t>Hanna Kubiak</t>
+  </si>
+  <si>
+    <t>Jakub Wójcik</t>
+  </si>
+  <si>
+    <t>Natalia Olszewska</t>
+  </si>
+  <si>
+    <t>Adam Zieliński</t>
+  </si>
+  <si>
+    <t>Wojciech Kaczmarek</t>
+  </si>
+  <si>
+    <t>Amelia Malinowska</t>
+  </si>
+  <si>
+    <t>Mikołaj Wojciechowski</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>Mikołaj Lewandowski</t>
+  </si>
+  <si>
+    <t>Aleksander Piotrowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -514,139 +506,172 @@
     <t>maj</t>
   </si>
   <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
   </si>
   <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
+    <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -718,7 +743,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,12 +766,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -777,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -788,13 +807,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1101,7 +1119,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1206,16 +1224,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -1227,19 +1245,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="F18" s="3">
         <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1248,13 +1266,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
@@ -1272,10 +1290,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3">
         <v>6</v>
@@ -1290,19 +1308,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
         <v>6</v>
       </c>
-      <c r="D21" s="3">
-        <v>3</v>
-      </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1311,19 +1329,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1332,19 +1350,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1353,19 +1371,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1374,19 +1392,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
         <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1395,19 +1413,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
       </c>
       <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
         <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1416,19 +1434,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
       <c r="E27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1437,19 +1455,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
         <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1462,6 +1480,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1495,7 +1519,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1515,7 +1539,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1525,29 +1549,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1555,99 +1579,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.4</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.1</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4.9</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>22.6</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>14.9</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5.7</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3.2</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4.5</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>23.1</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.5</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1664,10 +1688,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1680,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1705,27 +1729,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1733,85 +1757,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>28.64</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>11</v>
       </c>
       <c r="C15" s="3">
-        <v>19</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3.72</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2.04</v>
       </c>
       <c r="C16" s="3">
-        <v>24</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>22.63</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>19.79</v>
       </c>
       <c r="C17" s="3">
-        <v>44</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3.24</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>9.57</v>
       </c>
       <c r="C18" s="3">
-        <v>34</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>30.76</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>27.83</v>
       </c>
       <c r="C19" s="3">
-        <v>41</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1820,8 +1844,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1829,85 +1853,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>28.31</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>23.030000000000001</v>
       </c>
       <c r="C24" s="3">
         <v>39</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>30.73</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>21.91</v>
       </c>
       <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>4.58</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>19.36</v>
       </c>
       <c r="C26" s="3">
-        <v>37</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>21.46</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>11.46</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>30.55</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>12.97</v>
       </c>
       <c r="C28" s="3">
-        <v>10</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1916,8 +1940,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1925,89 +1949,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>6.57</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>22.64</v>
       </c>
       <c r="C33" s="3">
-        <v>26</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>4.73</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>14.32</v>
       </c>
       <c r="C34" s="3">
-        <v>37</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>24.14</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1.23</v>
       </c>
       <c r="C35" s="3">
-        <v>31</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1.17</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>18.45</v>
       </c>
       <c r="C36" s="3">
-        <v>50</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>28.76</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>28.45</v>
       </c>
       <c r="C37" s="3">
-        <v>21</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2027,10 +2059,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L20"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2050,111 +2082,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
         <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2162,19 +2194,19 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
@@ -2183,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
         <v>3</v>
@@ -2194,31 +2226,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2226,28 +2258,28 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
         <v>5</v>
@@ -2258,19 +2290,19 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -2279,115 +2311,51 @@
         <v>4</v>
       </c>
       <c r="I16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2400,10 +2368,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2414,271 +2382,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>11034</v>
+        <v>101</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3735</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>12054</v>
+        <v>102</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9696</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>12205</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5478</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>12091</v>
+        <v>103</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5579</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>13140</v>
+        <v>104</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3770</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9237</v>
+        <v>105</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C16" s="8">
+        <v>11657</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4767</v>
+        <v>106</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C17" s="8">
+        <v>13063</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>7031</v>
+        <v>107</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9160</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8154</v>
+        <v>108</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C19" s="8">
+        <v>14198</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11676</v>
+        <v>109</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C20" s="8">
+        <v>11769</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6343</v>
+        <v>110</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4577</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>7156</v>
+        <v>111</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C22" s="8">
+        <v>9172</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>12976</v>
+        <v>112</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C23" s="8">
+        <v>9334</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7">
-        <v>9885</v>
+        <v>113</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C24" s="8">
+        <v>10911</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5559</v>
+        <v>114</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C25" s="8">
+        <v>13927</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7">
-        <v>7912</v>
+        <v>115</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C26" s="8">
+        <v>10660</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="7">
-        <v>8486</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="7">
-        <v>6286</v>
+        <v>116</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C27" s="8">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="17" t="s">
-        <v>141</v>
-      </c>
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2695,10 +2652,239 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A10" sqref="A10:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3">
+        <v>162</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3">
+        <v>146</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="3">
+        <v>185</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="3">
+        <v>93</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="3">
+        <v>112</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="3">
+        <v>138</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="3">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>132</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="3">
+        <v>112</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="3">
+        <v>94</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="3">
+        <v>123</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="3">
+        <v>116</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="3">
+        <v>98</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="3">
+        <v>170</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="3">
+        <v>93</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="3">
+        <v>160</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="3">
+        <v>132</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2713,86 +2899,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>145</v>
+      <c r="A1" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2800,22 +2986,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1459</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1970</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1070</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1241</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2823,22 +3009,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="7">
-        <v>736</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1008</v>
+        <v>165</v>
+      </c>
+      <c r="D17" s="8">
+        <v>558</v>
+      </c>
+      <c r="E17" s="8">
+        <v>675</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2846,22 +3032,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1114</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1504</v>
+        <v>168</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1149</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1287</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2869,19 +3055,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1458</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1866</v>
+        <v>171</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1149</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1563</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>173</v>
@@ -2897,11 +3083,11 @@
       <c r="C20" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="7">
-        <v>1030</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1308</v>
+      <c r="D20" s="8">
+        <v>1086</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1466</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>176</v>
@@ -2915,22 +3101,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="8">
+        <v>1123</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1336</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="7">
-        <v>1094</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1389</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2941,19 +3127,19 @@
         <v>174</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="8">
+        <v>526</v>
+      </c>
+      <c r="E22" s="8">
+        <v>710</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1461</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1929</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2961,22 +3147,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1002</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1353</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1003</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1404</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2984,22 +3170,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1052</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1315</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1442</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3010,19 +3196,19 @@
         <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="7">
-        <v>511</v>
-      </c>
-      <c r="E25" s="7">
-        <v>613</v>
+        <v>188</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1218</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1401</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3030,22 +3216,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="7">
-        <v>517</v>
-      </c>
-      <c r="E26" s="7">
-        <v>595</v>
+        <v>191</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1358</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1684</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3053,22 +3239,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="8">
+        <v>543</v>
+      </c>
+      <c r="E27" s="8">
+        <v>668</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1006</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1328</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3076,22 +3262,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1430</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1602</v>
+        <v>196</v>
+      </c>
+      <c r="D28" s="8">
+        <v>981</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1305</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3099,22 +3285,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1300</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1456</v>
+        <v>185</v>
+      </c>
+      <c r="D29" s="8">
+        <v>892</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1115</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3122,22 +3308,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1079</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1284</v>
+        <v>171</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1276</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1595</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3148,19 +3334,19 @@
         <v>174</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1171</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1628</v>
+        <v>185</v>
+      </c>
+      <c r="D31" s="8">
+        <v>911</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1066</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3168,22 +3354,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1016</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1118</v>
+        <v>203</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1004</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1104</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3191,22 +3377,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="7">
-        <v>906</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1232</v>
+        <v>205</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1241</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1514</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3214,22 +3400,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="7">
-        <v>889</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1031</v>
+        <v>207</v>
+      </c>
+      <c r="D34" s="8">
+        <v>666</v>
+      </c>
+      <c r="E34" s="8">
+        <v>872</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3237,22 +3423,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1270</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1061</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1475</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3260,22 +3446,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1036</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1171</v>
+        <v>210</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1420</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1633</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3283,22 +3469,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1129</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1389</v>
+        <v>212</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1361</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1647</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3309,19 +3495,19 @@
         <v>167</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1176</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1529</v>
+        <v>205</v>
+      </c>
+      <c r="D38" s="8">
+        <v>732</v>
+      </c>
+      <c r="E38" s="8">
+        <v>915</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3329,22 +3515,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1396</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1717</v>
+        <v>207</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1219</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1524</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3352,22 +3538,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1047</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1225</v>
+        <v>212</v>
+      </c>
+      <c r="D40" s="8">
+        <v>832</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1073</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3375,58 +3561,127 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1081</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1384</v>
+        <v>188</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1180</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1440</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1447</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1707</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1203</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1480</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" s="6"/>
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1199</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1391</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>211</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A47" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>212</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
